--- a/data/trans_bre/P6902-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P6902-Provincia-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P6902-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P6902-Provincia-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,7 +620,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,66</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -630,32 +630,32 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,21</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,41</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>35,76%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,76%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,35%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-7,22; 40,66</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-13,11; 28,34</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>-35,61; 21,61</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-10,31; 114,48</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,54; 63,88</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,83; 71,59</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,09</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,18</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>34,02</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,31</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,62%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,42%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>123,23%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,17%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,22; 40,91</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,77; 18,81</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,3; 51,58</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,6; 34,17</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,19; 124,15</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,58; 45,44</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>44,51; 261,9</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,78; 110,84</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-24,31</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>20,77</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,8</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,22</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-58,04%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>69,67%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>76,09%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,46%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,41; -1,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,45; 50,66</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,77; 40,08</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,76; 33,04</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-88,44; 7,86</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,05; 334,94</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-72,7; 643,6</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,73; 94,57</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,63</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,18</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,51</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,53</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,48%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,61%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,53%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-18,68%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,2; 36,22</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,4; 32,6</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,9; 10,49</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,8; 8,65</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,2; 102,11</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,59; 68,77</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,45; 14,84</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,0; 11,06</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>41,72</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>60,31</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>33,8</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>21,26</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>138,21%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>935,49%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>51,05%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,9%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>-2,77; 73,54</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>15,21; 85,97</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>13,05; 65,18</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-7,03; 45,36</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>1,4; 496,88</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,0; 186,94</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,6; 114,72</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>30,65</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,35</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>19,72</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,15</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>72,37%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,89%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>72,46%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,29%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>-0,48; 54,57</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>-28,35; 29,8</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>-21,41; 60,76</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>-22,85; 19,39</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0,96; 176,9</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>-52,22; 80,67</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,45; 50,18</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,82</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,37</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>26,14</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,43</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,74%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,6%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>64,46%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,0%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,31; 18,45</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,86; 16,03</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,32; 41,84</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,42; 22,61</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,64; 46,25</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,64; 32,73</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,0; 137,14</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,32; 41,25</t>
         </is>
       </c>
     </row>
@@ -1320,42 +1320,42 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,7</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,33</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,11</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,41</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,18%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,05%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,77%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,35%</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,81; 19,27</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,09; 32,31</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,59; 21,87</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,13; 8,5</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,92; 55,41</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,34; 147,49</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,99; 56,33</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,39; 10,55</t>
         </is>
       </c>
     </row>
@@ -1420,42 +1420,42 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,93</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,67</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,15</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,59</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,26%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,77%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,5%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,15%</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,25; 15,87</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,2; 18,99</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,58; 25,2</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,65; 10,59</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,4; 39,45</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,74; 44,28</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,79; 64,0</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,73; 18,27</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P6902-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P6902-Provincia-trans_bre.xlsx
@@ -625,7 +625,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>27,35</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-7,41</t>
+          <t>-9,34</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>46,77%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-14,35%</t>
+          <t>-17,29%</t>
         </is>
       </c>
     </row>
@@ -673,7 +673,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,36; 47,5</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-35,61; 21,61</t>
+          <t>-38,27; 19,82</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,79; 108,07</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-54,83; 71,59</t>
+          <t>-57,12; 58,06</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>11,31</t>
+          <t>11,22</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>25,17%</t>
+          <t>25,1%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-10,6; 34,17</t>
+          <t>-10,79; 34,3</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-18,78; 110,84</t>
+          <t>-18,51; 112,85</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>14,22</t>
+          <t>14,1</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>29,46%</t>
+          <t>29,08%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 33,04</t>
+          <t>-3,66; 32,97</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,73; 94,57</t>
+          <t>-6,06; 94,44</t>
         </is>
       </c>
     </row>
@@ -925,7 +925,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>18,18</t>
+          <t>8,28</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-14,53</t>
+          <t>-32,83</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -945,7 +945,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>32,61%</t>
+          <t>15,49%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-18,68%</t>
+          <t>-42,26%</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,4; 32,6</t>
+          <t>-15,87; 31,31</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-46,8; 8,65</t>
+          <t>-71,61; 6,16</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,59; 68,77</t>
+          <t>-25,81; 72,8</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-56,0; 11,06</t>
+          <t>-81,05; 8,24</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>21,26</t>
+          <t>21,81</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>36,9%</t>
+          <t>38,17%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,03; 45,36</t>
+          <t>-6,39; 46,16</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-9,6; 114,72</t>
+          <t>-8,6; 116,33</t>
         </is>
       </c>
     </row>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-0,15</t>
+          <t>-0,25</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-0,29%</t>
+          <t>-0,49%</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-22,85; 19,39</t>
+          <t>-22,94; 19,13</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-36,45; 50,18</t>
+          <t>-36,91; 49,22</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>7,43</t>
+          <t>7,6</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>11,0%</t>
+          <t>11,27%</t>
         </is>
       </c>
     </row>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-7,42; 22,61</t>
+          <t>-7,64; 22,66</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-9,32; 41,25</t>
+          <t>-9,16; 42,06</t>
         </is>
       </c>
     </row>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-7,41</t>
+          <t>-6,68</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-9,35%</t>
+          <t>-8,43%</t>
         </is>
       </c>
     </row>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-34,13; 8,5</t>
+          <t>-30,77; 9,42</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-40,39; 10,55</t>
+          <t>-37,29; 12,15</t>
         </is>
       </c>
     </row>
@@ -1435,7 +1435,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>2,59</t>
+          <t>-1,34</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>4,15%</t>
+          <t>-2,16%</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-6,65; 10,59</t>
+          <t>-19,52; 8,1</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-9,73; 18,27</t>
+          <t>-30,49; 13,73</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P6902-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P6902-Provincia-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,22; 40,66</t>
+          <t>-9,47; 39,52</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,36; 47,5</t>
+          <t>4,47; 46,46</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-13,11; 28,34</t>
+          <t>-13,99; 27,56</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-38,27; 19,82</t>
+          <t>-38,93; 19,91</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-10,31; 114,48</t>
+          <t>-14,98; 105,13</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>8,79; 108,07</t>
+          <t>7,19; 108,24</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-19,54; 63,88</t>
+          <t>-21,08; 63,68</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-57,12; 58,06</t>
+          <t>-60,28; 54,14</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 40,91</t>
+          <t>-2,95; 36,92</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-26,77; 18,81</t>
+          <t>-25,63; 20,45</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>15,3; 51,58</t>
+          <t>16,16; 50,12</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-10,79; 34,3</t>
+          <t>-12,02; 34,48</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-7,19; 124,15</t>
+          <t>-5,98; 110,82</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-46,58; 45,44</t>
+          <t>-44,38; 51,89</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>44,51; 261,9</t>
+          <t>45,97; 252,43</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-18,51; 112,85</t>
+          <t>-21,01; 119,78</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-46,41; -1,55</t>
+          <t>-44,1; 2,62</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,45; 50,66</t>
+          <t>-11,09; 49,78</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-16,77; 40,08</t>
+          <t>-13,55; 45,5</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,66; 32,97</t>
+          <t>-4,71; 31,42</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-88,44; 7,86</t>
+          <t>-89,1; 11,01</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-26,05; 334,94</t>
+          <t>-29,25; 277,67</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-72,7; 643,6</t>
+          <t>-65,02; 779,87</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-6,06; 94,44</t>
+          <t>-7,64; 83,63</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-12,2; 36,22</t>
+          <t>-15,86; 33,54</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-15,87; 31,31</t>
+          <t>-18,08; 31,14</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-35,9; 10,49</t>
+          <t>-36,19; 9,11</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-71,61; 6,16</t>
+          <t>-73,63; 4,94</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-24,2; 102,11</t>
+          <t>-31,38; 87,67</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-25,81; 72,8</t>
+          <t>-29,54; 75,74</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-43,45; 14,84</t>
+          <t>-43,53; 12,78</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-81,05; 8,24</t>
+          <t>-80,46; 6,95</t>
         </is>
       </c>
     </row>
@@ -1068,27 +1068,27 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 73,54</t>
+          <t>-7,86; 73,59</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>15,21; 85,97</t>
+          <t>20,83; 86,32</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>13,05; 65,18</t>
+          <t>12,4; 64,56</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,39; 46,16</t>
+          <t>-4,8; 47,98</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,4; 496,88</t>
+          <t>-10,42; 490,21</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1098,19 +1098,19 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>15,0; 186,94</t>
+          <t>14,15; 180,93</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-8,6; 116,33</t>
+          <t>-5,74; 133,04</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 54,57</t>
+          <t>0,92; 56,01</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-28,35; 29,8</t>
+          <t>-27,2; 30,49</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-21,41; 60,76</t>
+          <t>-22,68; 58,57</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-22,94; 19,13</t>
+          <t>-22,51; 20,43</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,96; 176,9</t>
+          <t>9,08; 190,59</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-52,22; 80,67</t>
+          <t>-49,22; 75,85</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-89,81; 475,3</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-36,91; 49,22</t>
+          <t>-34,86; 52,14</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-17,31; 18,45</t>
+          <t>-16,21; 20,15</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-22,86; 16,03</t>
+          <t>-22,66; 18,62</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>8,32; 41,84</t>
+          <t>7,89; 45,63</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-7,64; 22,66</t>
+          <t>-5,44; 23,68</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-31,64; 46,25</t>
+          <t>-31,06; 49,55</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-34,64; 32,73</t>
+          <t>-33,86; 36,71</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>20,0; 137,14</t>
+          <t>14,78; 145,42</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-9,16; 42,06</t>
+          <t>-7,29; 42,85</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-13,81; 19,27</t>
+          <t>-15,03; 20,41</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-17,09; 32,31</t>
+          <t>-12,77; 34,26</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-32,59; 21,87</t>
+          <t>-31,92; 21,86</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-30,77; 9,42</t>
+          <t>-28,91; 10,08</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-30,92; 55,41</t>
+          <t>-32,52; 58,93</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-41,34; 147,49</t>
+          <t>-33,24; 144,9</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-54,99; 56,33</t>
+          <t>-56,26; 50,52</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-37,29; 12,15</t>
+          <t>-34,06; 13,3</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 15,87</t>
+          <t>0,27; 17,13</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>1,2; 18,99</t>
+          <t>0,92; 19,07</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>8,58; 25,2</t>
+          <t>8,18; 26,25</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-19,52; 8,1</t>
+          <t>-21,65; 8,58</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 39,45</t>
+          <t>0,72; 43,04</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>2,74; 44,28</t>
+          <t>1,92; 44,65</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>18,79; 64,0</t>
+          <t>17,1; 65,36</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-30,49; 13,73</t>
+          <t>-32,7; 14,38</t>
         </is>
       </c>
     </row>
